--- a/form-files/group_test/testform.xlsx
+++ b/form-files/group_test/testform.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett\workspace\cse481k\AdaptiveODK\form-files\group_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -438,13 +443,58 @@
   </si>
   <si>
     <t>How much does the child weigh? (kg)</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Danger Signs</t>
+  </si>
+  <si>
+    <t>label demographics</t>
+  </si>
+  <si>
+    <t>label general</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>label pneumonia</t>
+  </si>
+  <si>
+    <t>label ear</t>
+  </si>
+  <si>
+    <t>parent_label</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>malaria_measles</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>inline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,13 +507,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,11 +537,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,8 +554,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -501,6 +566,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -761,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,306 +837,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
+      <c r="B17" t="s">
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D26" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="P24" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="R28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,13 +1247,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1110,13 +1274,13 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="124.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1132,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1140,7 +1304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1148,7 +1312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1156,7 +1320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1164,7 +1328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1172,7 +1336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1180,7 +1344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1188,7 +1352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1196,7 +1360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1204,7 +1368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1212,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1220,7 +1384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1228,7 +1392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1236,7 +1400,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -1244,7 +1408,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -1252,7 +1416,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1260,7 +1424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -1268,7 +1432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1276,7 +1440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1284,7 +1448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1292,7 +1456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1300,7 +1464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1315,25 +1479,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" customWidth="1"/>
-    <col min="7" max="7" width="44.85546875" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1344,22 +1508,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1369,9 +1536,9 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1393,16 +1560,19 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1413,16 +1583,19 @@
         <v>110</v>
       </c>
       <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1433,16 +1606,19 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>126</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1453,16 +1629,19 @@
         <v>122</v>
       </c>
       <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1473,12 +1652,15 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
         <v>108</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>128</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1495,13 +1677,13 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1692,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,7 +1701,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1710,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1537,32 +1719,32 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/form-files/group_test/testform.xlsx
+++ b/form-files/group_test/testform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="211">
   <si>
     <t>type</t>
   </si>
@@ -91,18 +91,12 @@
     <t>calculation</t>
   </si>
   <si>
-    <t>Bryan's Test form</t>
-  </si>
-  <si>
     <t>schema.type</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>bryanTest</t>
-  </si>
-  <si>
     <t>select_one yesno</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>label demographics</t>
   </si>
   <si>
-    <t>label general</t>
-  </si>
-  <si>
     <t>Pneumonia</t>
   </si>
   <si>
@@ -472,9 +463,6 @@
     <t>parent_label</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
     <t>pneumonia</t>
   </si>
   <si>
@@ -488,13 +476,193 @@
   </si>
   <si>
     <t>inline</t>
+  </si>
+  <si>
+    <t>label danger</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>cough_positive</t>
+  </si>
+  <si>
+    <t>selected(data('cough'), 'yes')</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>cough_how_long</t>
+  </si>
+  <si>
+    <t>breath_rate</t>
+  </si>
+  <si>
+    <t>How many breaths does the child take in one minute?</t>
+  </si>
+  <si>
+    <t>breath_danger</t>
+  </si>
+  <si>
+    <t>Does thie child show chest indrawing, stridor, or wheezing?</t>
+  </si>
+  <si>
+    <t>Adaptive IMCI</t>
+  </si>
+  <si>
+    <t>adaptiveIMCI</t>
+  </si>
+  <si>
+    <t>label diarrhea</t>
+  </si>
+  <si>
+    <t>selected(data('diarrhea'), 'yes')</t>
+  </si>
+  <si>
+    <t>diarrhea_how_long</t>
+  </si>
+  <si>
+    <t>How long has the child had a cough? (days)</t>
+  </si>
+  <si>
+    <t>How long has the child had diarrhea? (days)</t>
+  </si>
+  <si>
+    <t>diarrhea_blood</t>
+  </si>
+  <si>
+    <t>Is there blood in the stool?</t>
+  </si>
+  <si>
+    <t>diarrhea_sunken_eyes</t>
+  </si>
+  <si>
+    <t>Does the child have sunken eyes?</t>
+  </si>
+  <si>
+    <t>label measles_malaria</t>
+  </si>
+  <si>
+    <t>selected(data('measles'), 'yes') || selected(data('fever'), 'yes')</t>
+  </si>
+  <si>
+    <t>How long has the child had a fever? (days)</t>
+  </si>
+  <si>
+    <t>fever_how_long</t>
+  </si>
+  <si>
+    <t>measles_before</t>
+  </si>
+  <si>
+    <t>Has the child had measles within the last 3 months?</t>
+  </si>
+  <si>
+    <t>measles_signs</t>
+  </si>
+  <si>
+    <t>Does the child have a stiff neck?</t>
+  </si>
+  <si>
+    <t>measles_stiffneck</t>
+  </si>
+  <si>
+    <t>Does the child have a rash, runny nose, and/or red eyes?</t>
+  </si>
+  <si>
+    <t>fever_persistent</t>
+  </si>
+  <si>
+    <t>Has fever been present every day?</t>
+  </si>
+  <si>
+    <t>data('fever_how_long') &gt; 7</t>
+  </si>
+  <si>
+    <t>selected(data('measles_before'), 'yes')</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>Measles &amp; Malaria</t>
+  </si>
+  <si>
+    <t>measles_ulcers</t>
+  </si>
+  <si>
+    <t>Does th child have mouth ulcers?</t>
+  </si>
+  <si>
+    <t>measles_eyedischarge</t>
+  </si>
+  <si>
+    <t>Does the child have pus draining from his/her eye?</t>
+  </si>
+  <si>
+    <t>measles_eyeclouding</t>
+  </si>
+  <si>
+    <t>Are the child's eyes cloudy?</t>
+  </si>
+  <si>
+    <t>Malnutrition &amp; Anemia</t>
+  </si>
+  <si>
+    <t>malnut_wasting</t>
+  </si>
+  <si>
+    <t>Is the child visibly wasting?</t>
+  </si>
+  <si>
+    <t>Does the show oedema of both feet?</t>
+  </si>
+  <si>
+    <t>Is the child's weight low for his/her age?</t>
+  </si>
+  <si>
+    <t>malnut_oedema</t>
+  </si>
+  <si>
+    <t>malnut_lowweight</t>
+  </si>
+  <si>
+    <t>anemia_pallor</t>
+  </si>
+  <si>
+    <t>Does the child have palmar pallor?</t>
+  </si>
+  <si>
+    <t>malnut_anemia_option</t>
+  </si>
+  <si>
+    <t>malnut_anemia</t>
+  </si>
+  <si>
+    <t>label malnut_anemia</t>
+  </si>
+  <si>
+    <t>{{calculates.malnut_anemia_danger_level()}}</t>
+  </si>
+  <si>
+    <t>danger_class_malnut_anemia</t>
+  </si>
+  <si>
+    <t>"TODO"</t>
+  </si>
+  <si>
+    <t>malnut_anemia_danger_level</t>
+  </si>
+  <si>
+    <t>{{calculates.danger_class_malnut_anemia()}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +681,65 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -537,26 +764,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -837,86 +1083,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="28.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="7" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="7"/>
+    <col min="12" max="12" width="17.33203125" style="7" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="7"/>
+    <col min="15" max="15" width="17.44140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>143</v>
+      <c r="A2" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -937,305 +1187,1495 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="R28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1244,21 +2684,23 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1268,208 +2710,226 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="124.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="124.6640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B24" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +2939,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,177 +2952,221 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.44140625" customWidth="1"/>
     <col min="8" max="8" width="44.88671875" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1674,80 +3179,82 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>99</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form-files/group_test/testform.xlsx
+++ b/form-files/group_test/testform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="212">
   <si>
     <t>type</t>
   </si>
@@ -541,9 +541,6 @@
     <t>Does the child have sunken eyes?</t>
   </si>
   <si>
-    <t>label measles_malaria</t>
-  </si>
-  <si>
     <t>selected(data('measles'), 'yes') || selected(data('fever'), 'yes')</t>
   </si>
   <si>
@@ -656,6 +653,12 @@
   </si>
   <si>
     <t>{{calculates.danger_class_malnut_anemia()}}</t>
+  </si>
+  <si>
+    <t>label malaria_measles</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -1085,9 +1088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1712,9 @@
       <c r="E23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1828,7 +1833,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1859,7 +1864,9 @@
       <c r="E29" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1953,11 +1960,11 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1980,7 +1987,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2006,12 +2013,14 @@
       <c r="B35" s="3"/>
       <c r="C35" s="18"/>
       <c r="D35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2031,13 +2040,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>150</v>
@@ -2062,10 +2071,10 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>150</v>
@@ -2090,10 +2099,10 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>150</v>
@@ -2118,10 +2127,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>150</v>
@@ -2166,10 +2175,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2194,10 +2203,10 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>150</v>
@@ -2222,10 +2231,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>150</v>
@@ -2250,10 +2259,10 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>150</v>
@@ -2446,7 +2455,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2471,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2496,10 +2505,10 @@
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
       <c r="D54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>150</v>
@@ -2524,10 +2533,10 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>150</v>
@@ -2552,10 +2561,10 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>150</v>
@@ -2580,10 +2589,10 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>150</v>
@@ -2627,7 +2636,9 @@
       <c r="A59" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
         <v>30</v>
@@ -2878,10 +2889,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2926,10 +2937,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2941,9 +2952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,22 +3162,22 @@
         <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/form-files/group_test/testform.xlsx
+++ b/form-files/group_test/testform.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14388" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -747,6 +746,18 @@
   </si>
   <si>
     <t>selected(data('anemia_pallor'))</t>
+  </si>
+  <si>
+    <t>adaptiveIMCI_commnunity</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>form_subtitle</t>
+  </si>
+  <si>
+    <t>Community Version</t>
   </si>
 </sst>
 </file>
@@ -1183,33 +1194,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="41" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4"/>
-    <col min="8" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="4" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="4"/>
-    <col min="13" max="13" width="17.28515625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" style="4"/>
-    <col min="16" max="16" width="17.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="20.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="4" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="4"/>
+    <col min="13" max="13" width="17.33203125" style="4" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="4"/>
+    <col min="16" max="16" width="17.44140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -1287,7 +1294,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -1311,7 +1318,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1346,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -1365,7 +1372,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1398,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1426,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1448,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>151</v>
       </c>
@@ -1463,7 +1470,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>43</v>
       </c>
@@ -1487,7 +1494,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1524,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1554,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1584,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1606,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1630,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1659,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1689,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1719,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1749,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -1764,7 +1771,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>143</v>
       </c>
@@ -1786,7 +1793,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1812,7 +1819,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>154</v>
       </c>
@@ -1840,7 +1847,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>154</v>
       </c>
@@ -1866,7 +1873,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1901,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1923,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>160</v>
       </c>
@@ -1937,7 +1944,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +1970,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>154</v>
       </c>
@@ -1991,7 +1998,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2026,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2054,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -2069,7 +2076,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>204</v>
       </c>
@@ -2090,7 +2097,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
@@ -2116,7 +2123,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>154</v>
       </c>
@@ -2144,7 +2151,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2179,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2207,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>24</v>
       </c>
@@ -2228,7 +2235,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2263,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2278,7 +2285,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
@@ -2304,7 +2311,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2339,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
@@ -2360,7 +2367,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>24</v>
       </c>
@@ -2388,7 +2395,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -2410,7 +2417,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>144</v>
       </c>
@@ -2432,7 +2439,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>43</v>
       </c>
@@ -2455,7 +2462,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +2490,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
@@ -2511,7 +2518,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
@@ -2539,7 +2546,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
@@ -2561,7 +2568,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -2583,7 +2590,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +2613,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>24</v>
       </c>
@@ -2634,7 +2641,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>24</v>
       </c>
@@ -2662,7 +2669,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2697,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -2718,7 +2725,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
@@ -2740,7 +2747,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>31</v>
       </c>
@@ -2768,25 +2775,25 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="18"/>
@@ -2802,20 +2809,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="17.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2832,23 +2835,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="97.44140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -2856,8 +2855,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>206</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>208</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>211</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>214</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>216</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>218</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>221</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>224</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>226</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>229</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>231</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>234</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>235</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>237</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>239</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>96</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>202</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>103</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>200</v>
       </c>
@@ -3194,25 +3193,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.42578125" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -3258,7 +3253,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3270,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3295,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +3320,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -3350,7 +3345,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3375,7 +3370,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3400,7 +3395,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3432,20 +3427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="6" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="6"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3454,59 +3445,67 @@
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
